--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -557,10 +557,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.14</v>
+        <v>0.91</v>
       </c>
       <c r="F2" t="n">
-        <v>162857</v>
+        <v>165251</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
@@ -641,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>13922</v>
@@ -683,10 +683,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F5" t="n">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
@@ -723,7 +723,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="n">
         <v>5183</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F7" t="n">
         <v>5183</v>
@@ -799,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F8" t="n">
         <v>6787</v>
@@ -841,10 +841,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="F9" t="n">
-        <v>233605</v>
+        <v>227162</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
@@ -883,10 +883,10 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F10" t="n">
-        <v>4599</v>
+        <v>4598</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">

--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -65,39 +65,45 @@
     <t xml:space="preserve">stem</t>
   </si>
   <si>
+    <t xml:space="preserve">outdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#e69c18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Визуализация попарных корреляций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок взаимодействия с пользователем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Визуализация результатов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">uptodate</t>
   </si>
   <si>
-    <t xml:space="preserve">box</t>
-  </si>
-  <si>
     <t xml:space="preserve">#67b5cc</t>
   </si>
   <si>
-    <t xml:space="preserve">interact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Визуализация попарных корреляций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок взаимодействия с пользователем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Визуализация результатов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download_files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">download</t>
   </si>
   <si>
@@ -119,16 +125,22 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
+    <t xml:space="preserve">download_quotes_agregation_level7.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
     <t xml:space="preserve">download_quotes_agregation_level9.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">model_data</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">data</t>
@@ -143,7 +155,7 @@
     <t xml:space="preserve">model_graph</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">Визуализация цена метанола</t>
@@ -155,7 +167,7 @@
     <t xml:space="preserve">quotes_forecast</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">Формирование сценарных условиев</t>
@@ -164,7 +176,7 @@
     <t xml:space="preserve">send_report</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">Подготовка и отправка отчёта</t>
@@ -638,20 +650,20 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13922</v>
+        <v>14030</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J4" t="n">
         <v>-283</v>
@@ -660,27 +672,27 @@
         <v>-75</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
         <v>0.03</v>
@@ -693,7 +705,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
         <v>-554</v>
@@ -702,25 +714,25 @@
         <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
         <v>0.03</v>
@@ -733,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J6" t="n">
         <v>-553</v>
@@ -742,25 +754,25 @@
         <v>-143</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
         <v>0.03</v>
@@ -773,66 +785,56 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-550</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-48</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F8" t="n">
-        <v>6787</v>
+        <v>5183</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J8" t="n">
-        <v>286</v>
+        <v>-550</v>
       </c>
       <c r="K8" t="n">
-        <v>35</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
+        <v>-48</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -841,10 +843,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="F9" t="n">
-        <v>227162</v>
+        <v>6787</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
@@ -854,13 +856,13 @@
         <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>425</v>
+        <v>286</v>
       </c>
       <c r="K9" t="n">
-        <v>-105</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M9" t="s">
         <v>44</v>
@@ -883,10 +885,10 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="F10" t="n">
-        <v>4598</v>
+        <v>227162</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
@@ -896,27 +898,27 @@
         <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>-44</v>
+        <v>425</v>
       </c>
       <c r="K10" t="n">
-        <v>111</v>
+        <v>-105</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
         <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -925,10 +927,10 @@
         <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F11" t="n">
-        <v>44</v>
+        <v>4598</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
@@ -938,18 +940,60 @@
         <v>19</v>
       </c>
       <c r="J11" t="n">
+        <v>-44</v>
+      </c>
+      <c r="K11" t="n">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>44</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
         <v>544</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>73</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" t="s">
         <v>22</v>
       </c>
     </row>

--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -98,85 +98,79 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
+    <t xml:space="preserve">download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Загрузка исходных данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок загрузки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_quotes_agregation_level1.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">uptodate</t>
   </si>
   <si>
     <t xml:space="preserve">#67b5cc</t>
   </si>
   <si>
-    <t xml:space="preserve">download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загрузка исходных данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок загрузки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download_quotes_agregation_level1.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">download_quotes_agregation_level2.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">download_quotes_agregation_level7.xlsx</t>
+    <t xml:space="preserve">download_quotes_agregation_level9.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">download_quotes_agregation_level9.xlsx</t>
+    <t xml:space="preserve">model_data</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">model_data</t>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прогноз цены метанола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок моделирования и прогнозирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model_graph</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прогноз цены метанола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок моделирования и прогнозирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_graph</t>
+    <t xml:space="preserve">Визуализация цена метанола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок графиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quotes_forecast</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">Визуализация цена метанола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок графиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quotes_forecast</t>
+    <t xml:space="preserve">Формирование сценарных условиев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_report</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Формирование сценарных условиев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">send_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">Подготовка и отправка отчёта</t>
@@ -569,10 +563,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.91</v>
+        <v>0.727</v>
       </c>
       <c r="F2" t="n">
-        <v>165251</v>
+        <v>165034</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
@@ -582,10 +576,10 @@
         <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="K2" t="n">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -611,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F3" t="n">
         <v>44</v>
@@ -624,10 +618,10 @@
         <v>19</v>
       </c>
       <c r="J3" t="n">
-        <v>-3</v>
+        <v>522</v>
       </c>
       <c r="K3" t="n">
-        <v>-134</v>
+        <v>-94</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -650,75 +644,75 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F4" t="n">
-        <v>14030</v>
+        <v>14037</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-289</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="n">
-        <v>-283</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F5" t="n">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>-554</v>
+        <v>-579</v>
       </c>
       <c r="K5" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -732,10 +726,10 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F6" t="n">
         <v>5183</v>
@@ -745,20 +739,20 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J6" t="n">
-        <v>-553</v>
+        <v>-582</v>
       </c>
       <c r="K6" t="n">
-        <v>-143</v>
+        <v>-144</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -772,10 +766,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F7" t="n">
         <v>5183</v>
@@ -785,10 +779,14 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>34</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-589</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-72</v>
+      </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -804,37 +802,43 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03</v>
+        <v>0.014</v>
       </c>
       <c r="F8" t="n">
-        <v>5183</v>
+        <v>6787</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
-        <v>-550</v>
+        <v>13</v>
       </c>
       <c r="K8" t="n">
-        <v>-48</v>
-      </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -843,10 +847,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02</v>
+        <v>0.177</v>
       </c>
       <c r="F9" t="n">
-        <v>6787</v>
+        <v>226718</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
@@ -856,27 +860,27 @@
         <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="K9" t="n">
-        <v>35</v>
+        <v>-46</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -885,10 +889,10 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21</v>
+        <v>0.053</v>
       </c>
       <c r="F10" t="n">
-        <v>227162</v>
+        <v>4599</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
@@ -898,27 +902,27 @@
         <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>425</v>
+        <v>-201</v>
       </c>
       <c r="K10" t="n">
-        <v>-105</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -927,10 +931,10 @@
         <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4598</v>
+        <v>44</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
@@ -940,60 +944,18 @@
         <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>-44</v>
+        <v>526</v>
       </c>
       <c r="K11" t="n">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>44</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="n">
-        <v>544</v>
-      </c>
-      <c r="K12" t="n">
-        <v>73</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" t="s">
         <v>22</v>
       </c>
     </row>

--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -65,13 +65,13 @@
     <t xml:space="preserve">stem</t>
   </si>
   <si>
-    <t xml:space="preserve">outdated</t>
+    <t xml:space="preserve">uptodate</t>
   </si>
   <si>
     <t xml:space="preserve">box</t>
   </si>
   <si>
-    <t xml:space="preserve">#e69c18</t>
+    <t xml:space="preserve">#67b5cc</t>
   </si>
   <si>
     <t xml:space="preserve">interact</t>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uptodate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#67b5cc</t>
   </si>
   <si>
     <t xml:space="preserve">download_quotes_agregation_level2.xlsx</t>
@@ -605,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>44</v>
@@ -647,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F4" t="n">
-        <v>14037</v>
+        <v>13922</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
@@ -686,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
         <v>0.02</v>
@@ -699,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
         <v>-579</v>
@@ -717,16 +711,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>0.02</v>
@@ -739,7 +733,7 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
         <v>-582</v>
@@ -757,16 +751,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
         <v>0.02</v>
@@ -779,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
         <v>-589</v>
@@ -793,10 +787,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -824,21 +818,21 @@
         <v>16</v>
       </c>
       <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
         <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -869,18 +863,18 @@
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -889,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>0.053</v>
+        <v>0.179</v>
       </c>
       <c r="F10" t="n">
         <v>4599</v>
@@ -908,21 +902,21 @@
         <v>128</v>
       </c>
       <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
         <v>41</v>
-      </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -953,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>

--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -557,10 +557,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.727</v>
+        <v>0.14</v>
       </c>
       <c r="F2" t="n">
-        <v>165034</v>
+        <v>162857</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
@@ -641,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002</v>
+        <v>0.02</v>
       </c>
       <c r="F4" t="n">
         <v>13922</v>
@@ -799,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>0.014</v>
+        <v>0.03</v>
       </c>
       <c r="F8" t="n">
         <v>6787</v>
@@ -841,10 +841,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.177</v>
+        <v>0.24</v>
       </c>
       <c r="F9" t="n">
-        <v>226718</v>
+        <v>233605</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
@@ -883,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>0.179</v>
+        <v>0.08</v>
       </c>
       <c r="F10" t="n">
         <v>4599</v>

--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -557,10 +557,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.14</v>
+        <v>0.648</v>
       </c>
       <c r="F2" t="n">
-        <v>162857</v>
+        <v>165034</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
@@ -641,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
       <c r="F4" t="n">
         <v>13922</v>
@@ -799,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03</v>
+        <v>0.014</v>
       </c>
       <c r="F8" t="n">
         <v>6787</v>
@@ -841,10 +841,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="F9" t="n">
-        <v>233605</v>
+        <v>226718</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
@@ -883,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08</v>
+        <v>0.178</v>
       </c>
       <c r="F10" t="n">
         <v>4599</v>

--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -65,52 +65,76 @@
     <t xml:space="preserve">stem</t>
   </si>
   <si>
+    <t xml:space="preserve">outdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#e69c18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Визуализация попарных корреляций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок взаимодействия с пользователем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Визуализация результатов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_Copy.of.quotes_agregation_level11.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Загрузка исходных данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок загрузки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_quotes_agregation_level1.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">uptodate</t>
   </si>
   <si>
-    <t xml:space="preserve">box</t>
-  </si>
-  <si>
     <t xml:space="preserve">#67b5cc</t>
   </si>
   <si>
-    <t xml:space="preserve">interact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Визуализация попарных корреляций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок взаимодействия с пользователем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Визуализация результатов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download_files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загрузка исходных данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок загрузки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download_quotes_agregation_level1.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">download_quotes_agregation_level10.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_quotes_agregation_level11.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">download_quotes_agregation_level2.xlsx</t>
@@ -640,12 +664,8 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13922</v>
-      </c>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="s">
         <v>18</v>
@@ -653,28 +673,18 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="n">
-        <v>-289</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -683,10 +693,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
       <c r="F5" t="n">
-        <v>4143</v>
+        <v>13922</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
@@ -696,17 +706,19 @@
         <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>-579</v>
+        <v>-289</v>
       </c>
       <c r="K5" t="n">
-        <v>36</v>
+        <v>-30</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5"/>
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -720,41 +732,41 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>0.02</v>
       </c>
       <c r="F6" t="n">
-        <v>5183</v>
+        <v>4143</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>-582</v>
+        <v>-579</v>
       </c>
       <c r="K6" t="n">
-        <v>-144</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -762,12 +774,8 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5183</v>
-      </c>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="s">
         <v>18</v>
@@ -775,22 +783,18 @@
       <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" t="n">
-        <v>-589</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-72</v>
-      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -798,12 +802,8 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6787</v>
-      </c>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="s">
         <v>18</v>
@@ -811,112 +811,94 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="n">
-        <v>13</v>
-      </c>
-      <c r="K8" t="n">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>0.192</v>
+        <v>0.02</v>
       </c>
       <c r="F9" t="n">
-        <v>226718</v>
+        <v>5183</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>312</v>
+        <v>-582</v>
       </c>
       <c r="K9" t="n">
-        <v>-46</v>
+        <v>-144</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>44</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M9"/>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n">
-        <v>0.178</v>
+        <v>0.02</v>
       </c>
       <c r="F10" t="n">
-        <v>4599</v>
+        <v>5183</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>-201</v>
+        <v>-589</v>
       </c>
       <c r="K10" t="n">
-        <v>128</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" t="s">
-        <v>41</v>
-      </c>
+        <v>-72</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -925,10 +907,10 @@
         <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="F11" t="n">
-        <v>44</v>
+        <v>6787</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
@@ -938,18 +920,144 @@
         <v>19</v>
       </c>
       <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="F12" t="n">
+        <v>226718</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>312</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4599</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-201</v>
+      </c>
+      <c r="K13" t="n">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>44</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
         <v>526</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K14" t="n">
         <v>24</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L14" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" t="s">
         <v>22</v>
       </c>
     </row>

--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -92,12 +92,6 @@
     <t xml:space="preserve">Визуализация результатов</t>
   </si>
   <si>
-    <t xml:space="preserve">download_Copy.of.quotes_agregation_level11.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
     <t xml:space="preserve">download_files</t>
   </si>
   <si>
@@ -129,12 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download_quotes_agregation_level11.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">download_quotes_agregation_level2.xlsx</t>
@@ -581,10 +569,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.648</v>
+        <v>0.613</v>
       </c>
       <c r="F2" t="n">
-        <v>165034</v>
+        <v>163561</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
@@ -664,8 +652,12 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="E4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13922</v>
+      </c>
       <c r="G4"/>
       <c r="H4" t="s">
         <v>18</v>
@@ -673,93 +665,89 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
+      <c r="J4" t="n">
+        <v>-289</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003</v>
+        <v>0.02</v>
       </c>
       <c r="F5" t="n">
-        <v>13922</v>
+        <v>4143</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>-289</v>
+        <v>-579</v>
       </c>
       <c r="K5" t="n">
-        <v>-30</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
         <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4143</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-579</v>
-      </c>
-      <c r="K6" t="n">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
       <c r="M6"/>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -772,22 +760,34 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5183</v>
+      </c>
       <c r="G7"/>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
+        <v>34</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-582</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-144</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
       <c r="M7"/>
-      <c r="N7"/>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -800,19 +800,27 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5183</v>
+      </c>
       <c r="G8"/>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
+        <v>34</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-589</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-72</v>
+      </c>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -828,77 +836,85 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02</v>
+        <v>0.014</v>
       </c>
       <c r="F9" t="n">
-        <v>5183</v>
+        <v>6787</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>-582</v>
+        <v>13</v>
       </c>
       <c r="K9" t="n">
-        <v>-144</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9"/>
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02</v>
+        <v>0.319</v>
       </c>
       <c r="F10" t="n">
-        <v>5183</v>
+        <v>225872</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>-589</v>
+        <v>312</v>
       </c>
       <c r="K10" t="n">
-        <v>-72</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
+        <v>-46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -907,10 +923,10 @@
         <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>0.014</v>
+        <v>0.178</v>
       </c>
       <c r="F11" t="n">
-        <v>6787</v>
+        <v>4599</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
@@ -920,27 +936,27 @@
         <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>-201</v>
       </c>
       <c r="K11" t="n">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -949,10 +965,10 @@
         <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>0.192</v>
+        <v>0.001</v>
       </c>
       <c r="F12" t="n">
-        <v>226718</v>
+        <v>44</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="s">
@@ -962,102 +978,18 @@
         <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>312</v>
+        <v>526</v>
       </c>
       <c r="K12" t="n">
-        <v>-46</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4599</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-201</v>
-      </c>
-      <c r="K13" t="n">
-        <v>128</v>
-      </c>
-      <c r="L13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>44</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>526</v>
-      </c>
-      <c r="K14" t="n">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" t="s">
         <v>22</v>
       </c>
     </row>

--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -84,12 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#e69c18</t>
   </si>
   <si>
     <t xml:space="preserve">download_quotes_agregation_level2.xlsx</t>
@@ -586,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007</v>
+        <v>0.17</v>
       </c>
       <c r="G3" t="n">
         <v>5183</v>
@@ -599,7 +593,7 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K3" t="n">
         <v>-593</v>
@@ -613,10 +607,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -653,10 +647,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -689,29 +683,29 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.178</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>4599</v>
+        <v>4598</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K6" t="n">
         <v>-201</v>
@@ -720,28 +714,28 @@
         <v>128</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>14037</v>
@@ -751,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K7" t="n">
         <v>-228</v>
@@ -769,19 +763,19 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.014</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
         <v>6787</v>
@@ -791,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K8" t="n">
         <v>13</v>
@@ -800,38 +794,38 @@
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.319</v>
+        <v>0.28</v>
       </c>
       <c r="G9" t="n">
-        <v>225872</v>
+        <v>227096</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
         <v>162</v>
@@ -840,28 +834,28 @@
         <v>-128</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>44</v>
@@ -871,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K10" t="n">
         <v>526</v>
@@ -880,38 +874,38 @@
         <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.613</v>
+        <v>1.03</v>
       </c>
       <c r="G11" t="n">
-        <v>163561</v>
+        <v>165205</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
         <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K11" t="n">
         <v>211</v>
@@ -920,28 +914,28 @@
         <v>123</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G12" t="n">
         <v>44</v>
@@ -951,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K12" t="n">
         <v>522</v>
@@ -960,10 +954,10 @@
         <v>-94</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#e69c18</t>
   </si>
   <si>
     <t xml:space="preserve">download_quotes_agregation_level2.xlsx</t>
@@ -580,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>0.17</v>
@@ -593,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
         <v>-593</v>
@@ -607,10 +613,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -647,10 +653,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -683,16 +689,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
         <v>0.05</v>
@@ -705,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
         <v>-201</v>
@@ -714,25 +720,25 @@
         <v>128</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -745,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>-228</v>
@@ -763,16 +769,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
         <v>0.03</v>
@@ -785,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
         <v>13</v>
@@ -794,25 +800,25 @@
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
         <v>0.28</v>
@@ -825,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
         <v>162</v>
@@ -834,25 +840,25 @@
         <v>-128</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -865,7 +871,7 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
         <v>526</v>
@@ -874,25 +880,25 @@
         <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>1.03</v>
@@ -905,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>211</v>
@@ -914,25 +920,25 @@
         <v>123</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
         <v>0.01</v>
@@ -945,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>522</v>
@@ -954,10 +960,10 @@
         <v>-94</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/1.Data/2.shiny/tar_nodes.xlsx
+++ b/1.Data/2.shiny/tar_nodes.xlsx
@@ -98,6 +98,12 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
+    <t xml:space="preserve">uptodate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#67b5cc</t>
+  </si>
+  <si>
     <t xml:space="preserve">download</t>
   </si>
   <si>
@@ -113,70 +119,64 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">uptodate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#67b5cc</t>
-  </si>
-  <si>
     <t xml:space="preserve">download_quotes_agregation_level10.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_quotes_agregation_level2.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_quotes_agregation_level9.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прогноз цены метанола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок моделирования и прогнозирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model_graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Визуализация цена метанола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок графиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quotes_forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формирование сценарных условиев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_report</t>
+  </si>
+  <si>
     <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download_quotes_agregation_level2.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download_quotes_agregation_level9.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прогноз цены метанола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок моделирования и прогнозирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Визуализация цена метанола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок графиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quotes_forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Формирование сценарных условиев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">send_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">Подготовка и отправка отчёта</t>
@@ -569,10 +569,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.613</v>
+        <v>1.03</v>
       </c>
       <c r="F2" t="n">
-        <v>163561</v>
+        <v>165205</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
         <v>44</v>
@@ -650,20 +650,20 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13922</v>
+        <v>14037</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J4" t="n">
         <v>-289</v>
@@ -672,27 +672,27 @@
         <v>-30</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
         <v>0.02</v>
@@ -705,7 +705,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
         <v>-579</v>
@@ -714,11 +714,11 @@
         <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -732,19 +732,27 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5183</v>
+      </c>
       <c r="G6"/>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
+        <v>29</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-554</v>
+      </c>
+      <c r="K6" t="n">
+        <v>96</v>
+      </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -760,7 +768,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
         <v>0.02</v>
@@ -773,7 +781,7 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
         <v>-582</v>
@@ -782,11 +790,11 @@
         <v>-144</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -800,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>0.02</v>
@@ -813,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J8" t="n">
         <v>-589</v>
@@ -836,10 +844,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>0.014</v>
+        <v>0.03</v>
       </c>
       <c r="F9" t="n">
         <v>6787</v>
@@ -849,7 +857,7 @@
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J9" t="n">
         <v>13</v>
@@ -881,10 +889,10 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>0.319</v>
+        <v>0.28</v>
       </c>
       <c r="F10" t="n">
-        <v>225872</v>
+        <v>227096</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
@@ -920,20 +928,20 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>0.178</v>
+        <v>0.05</v>
       </c>
       <c r="F11" t="n">
-        <v>4599</v>
+        <v>4598</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J11" t="n">
         <v>-201</v>
@@ -965,7 +973,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>44</v>
